--- a/Class_VIII/Hindi/Half Yearly Exam -2023_class_VIII.xlsx
+++ b/Class_VIII/Hindi/Half Yearly Exam -2023_class_VIII.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="38">
   <si>
     <t xml:space="preserve">Academic session</t>
   </si>
@@ -134,12 +134,6 @@
   </si>
   <si>
     <t xml:space="preserve">Nakul Sha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bitop jyoti Sarma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assamese</t>
   </si>
 </sst>
 </file>
@@ -240,10 +234,10 @@
   <dimension ref="A1:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A51" activeCellId="0" sqref="A51"/>
+      <selection pane="topLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.6"/>
@@ -2757,358 +2751,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G58" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="H58" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="I58" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J58" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="K58" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L58" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="M58" s="0" t="n">
-        <v>43</v>
-      </c>
-      <c r="N58" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="G59" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="H59" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="I59" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J59" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="K59" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L59" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="M59" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="N59" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F60" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G60" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="H60" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="I60" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J60" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="K60" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L60" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="M60" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="N60" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E61" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F61" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G61" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="H61" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="I61" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J61" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="K61" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L61" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="M61" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="N61" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E62" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F62" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G62" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="H62" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="I62" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J62" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="K62" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L62" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="M62" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E63" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F63" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G63" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="H63" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="I63" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J63" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="K63" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L63" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="M63" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="N63" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E64" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F64" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G64" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="H64" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="I64" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J64" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="K64" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L64" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="M64" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="N64" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E65" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F65" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G65" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="H65" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="I65" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J65" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="K65" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L65" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="M65" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="N65" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
